--- a/biology/Botanique/Eucalyptus_elata/Eucalyptus_elata.xlsx
+++ b/biology/Botanique/Eucalyptus_elata/Eucalyptus_elata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus elata, est une espèce d'eucalyptus de la famille des Myrtaceae. C'est un arbre de taille moyenne à grande à l'écorce rugueuse sur la partie inférieure du tronc, compacte, avec de longues et étroites fissures longitudinales, d'un gris foncé, se détachant en longs rubans, restant souvent adhérentes dans la couronne de l'arbre, pour laisser place à une écorce lisse, grise, blanchâtre ou crème.
 Les feuilles adultes sont pétiolées, lancéolées de 12 cm de long sur 2,8 cm, vert.
